--- a/day08/data/다나와_무선청소기_결과.xlsx
+++ b/day08/data/다나와_무선청소기_결과.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>446320</t>
+          <t>446390</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>149630</t>
+          <t>149780</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>561930</t>
+          <t>561280</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>49800</t>
+          <t>42330</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>222270</t>
+          <t>188840</t>
         </is>
       </c>
     </row>
